--- a/stacked_F5_CFI90.xlsx
+++ b/stacked_F5_CFI90.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education Big Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C6FE1FF-ED2F-438C-9FF2-5D80E5B03F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B73AAC8-E4E9-4377-A84E-454634BD94C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stacked_F5_CFI90" sheetId="1" r:id="rId1"/>
@@ -1852,7 +1852,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2014,7 +2014,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2197,6 +2197,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2445,11 +2451,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2806,12 +2818,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I1079"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J193" sqref="J193"/>
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3457,61 +3469,61 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="2">
         <v>0.98475552099999997</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>0.96951104200000005</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>7.8072516999999994E-2</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>3.2192617999999999E-2</v>
       </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="2">
         <v>0.98893323799999999</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>0.97786647699999996</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>7.4644555000000001E-2</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>2.7256494999999999E-2</v>
       </c>
-      <c r="H24">
-        <v>5</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4849,7 +4861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -5197,7 +5209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -5777,61 +5789,61 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" t="s">
+    <row r="103" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C103" t="s">
-        <v>28</v>
-      </c>
-      <c r="D103">
+      <c r="C103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" s="2">
         <v>0.97899656800000001</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="2">
         <v>0.96499427999999998</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="2">
         <v>7.2811825999999996E-2</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="2">
         <v>2.9373799999999999E-2</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="2">
         <v>6</v>
       </c>
-      <c r="I103" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="I103" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C104" t="s">
-        <v>28</v>
-      </c>
-      <c r="D104">
+      <c r="C104" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" s="2">
         <v>0.98027688199999996</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="2">
         <v>0.96712813600000003</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="2">
         <v>7.7440956000000005E-2</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="2">
         <v>2.7781271999999999E-2</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="2">
         <v>6</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6125,61 +6137,61 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>9</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="115" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C115" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115">
+      <c r="C115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" s="2">
         <v>0.98148295799999996</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="2">
         <v>0.97222443700000005</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="2">
         <v>5.9598277999999998E-2</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="2">
         <v>2.8111402000000001E-2</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="2">
         <v>7</v>
       </c>
-      <c r="I115" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="I115" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C116" t="s">
-        <v>28</v>
-      </c>
-      <c r="D116">
+      <c r="C116" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" s="2">
         <v>0.97752254000000005</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="2">
         <v>0.96628380999999997</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="2">
         <v>7.2815594999999997E-2</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="2">
         <v>2.9868576000000001E-2</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="2">
         <v>7</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6386,7 +6398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -6473,7 +6485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -6821,7 +6833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -7053,7 +7065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -7111,61 +7123,61 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>9</v>
-      </c>
-      <c r="B149" t="s">
+    <row r="149" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C149" t="s">
-        <v>28</v>
-      </c>
-      <c r="D149">
+      <c r="C149" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" s="2">
         <v>0.98963782700000003</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="2">
         <v>0.97927565500000002</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="2">
         <v>5.4951609999999998E-2</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="2">
         <v>2.6333390000000002E-2</v>
       </c>
-      <c r="H149">
-        <v>5</v>
-      </c>
-      <c r="I149" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>9</v>
-      </c>
-      <c r="B150" t="s">
+      <c r="H149" s="2">
+        <v>5</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C150" t="s">
-        <v>28</v>
-      </c>
-      <c r="D150">
+      <c r="C150" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" s="2">
         <v>0.98234261899999997</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="2">
         <v>0.96468523900000003</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="2">
         <v>7.8808921000000004E-2</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="2">
         <v>3.1361470000000002E-2</v>
       </c>
-      <c r="H150">
-        <v>5</v>
-      </c>
-      <c r="I150" t="s">
+      <c r="H150" s="2">
+        <v>5</v>
+      </c>
+      <c r="I150" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7546,7 +7558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -7604,7 +7616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -7865,7 +7877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -7923,7 +7935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -8068,7 +8080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -8503,7 +8515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -8619,7 +8631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -8677,7 +8689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -8822,7 +8834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -9170,7 +9182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>9</v>
       </c>
@@ -9228,7 +9240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>9</v>
       </c>
@@ -9489,7 +9501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -9634,7 +9646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>9</v>
       </c>
@@ -9692,7 +9704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>9</v>
       </c>
@@ -9779,7 +9791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>9</v>
       </c>
@@ -9924,7 +9936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>9</v>
       </c>
@@ -10272,7 +10284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -10504,7 +10516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>9</v>
       </c>
@@ -10794,7 +10806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -10852,7 +10864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>9</v>
       </c>
@@ -11055,7 +11067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>9</v>
       </c>
@@ -11171,7 +11183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -11432,7 +11444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>9</v>
       </c>
@@ -11548,7 +11560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>9</v>
       </c>
@@ -11693,7 +11705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>9</v>
       </c>
@@ -12128,7 +12140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>9</v>
       </c>
@@ -13143,7 +13155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>9</v>
       </c>
@@ -13317,7 +13329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>9</v>
       </c>
@@ -13404,7 +13416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>9</v>
       </c>
@@ -13491,7 +13503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>9</v>
       </c>
@@ -13955,7 +13967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>9</v>
       </c>
@@ -14245,7 +14257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>9</v>
       </c>
@@ -14738,7 +14750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>9</v>
       </c>
@@ -14883,7 +14895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>9</v>
       </c>
@@ -14941,7 +14953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>9</v>
       </c>
@@ -15086,7 +15098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>9</v>
       </c>
@@ -15260,7 +15272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>9</v>
       </c>
@@ -15405,7 +15417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>9</v>
       </c>
@@ -16333,7 +16345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>9</v>
       </c>
@@ -16362,7 +16374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>9</v>
       </c>
@@ -16478,7 +16490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>9</v>
       </c>
@@ -16565,7 +16577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>9</v>
       </c>
@@ -16681,7 +16693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>9</v>
       </c>
@@ -17203,7 +17215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>9</v>
       </c>
@@ -17754,7 +17766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>9</v>
       </c>
@@ -18450,7 +18462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>9</v>
       </c>
@@ -18624,61 +18636,61 @@
         <v>12</v>
       </c>
     </row>
-    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A546" t="s">
-        <v>9</v>
-      </c>
-      <c r="B546" t="s">
+    <row r="546" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A546" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B546" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C546" t="s">
-        <v>28</v>
-      </c>
-      <c r="D546">
+      <c r="C546" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D546" s="2">
         <v>0.98920819400000004</v>
       </c>
-      <c r="E546">
+      <c r="E546" s="2">
         <v>0.978416387</v>
       </c>
-      <c r="F546">
+      <c r="F546" s="2">
         <v>5.8001595000000003E-2</v>
       </c>
-      <c r="G546">
+      <c r="G546" s="2">
         <v>2.2964110999999999E-2</v>
       </c>
-      <c r="H546">
-        <v>5</v>
-      </c>
-      <c r="I546" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A547" t="s">
-        <v>9</v>
-      </c>
-      <c r="B547" t="s">
+      <c r="H546" s="2">
+        <v>5</v>
+      </c>
+      <c r="I546" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A547" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B547" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C547" t="s">
-        <v>28</v>
-      </c>
-      <c r="D547">
+      <c r="C547" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D547" s="2">
         <v>0.98811966600000001</v>
       </c>
-      <c r="E547">
+      <c r="E547" s="2">
         <v>0.97623933100000004</v>
       </c>
-      <c r="F547">
+      <c r="F547" s="2">
         <v>6.8110048000000006E-2</v>
       </c>
-      <c r="G547">
+      <c r="G547" s="2">
         <v>2.3291742000000001E-2</v>
       </c>
-      <c r="H547">
-        <v>5</v>
-      </c>
-      <c r="I547" t="s">
+      <c r="H547" s="2">
+        <v>5</v>
+      </c>
+      <c r="I547" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -18798,7 +18810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>9</v>
       </c>
@@ -19117,7 +19129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>9</v>
       </c>
@@ -20219,7 +20231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>9</v>
       </c>
@@ -20364,7 +20376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>9</v>
       </c>
@@ -20886,7 +20898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="624" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>9</v>
       </c>
@@ -21147,7 +21159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="633" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>9</v>
       </c>
@@ -21698,7 +21710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>9</v>
       </c>
@@ -22191,7 +22203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="669" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>9</v>
       </c>
@@ -22365,7 +22377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>9</v>
       </c>
@@ -22423,61 +22435,61 @@
         <v>15</v>
       </c>
     </row>
-    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A677" t="s">
-        <v>9</v>
-      </c>
-      <c r="B677" t="s">
+    <row r="677" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A677" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B677" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C677" t="s">
-        <v>28</v>
-      </c>
-      <c r="D677">
+      <c r="C677" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D677" s="2">
         <v>0.98361166200000005</v>
       </c>
-      <c r="E677">
+      <c r="E677" s="2">
         <v>0.97268610300000002</v>
       </c>
-      <c r="F677">
+      <c r="F677" s="2">
         <v>6.0039876999999998E-2</v>
       </c>
-      <c r="G677">
+      <c r="G677" s="2">
         <v>2.7727247E-2</v>
       </c>
-      <c r="H677">
+      <c r="H677" s="2">
         <v>6</v>
       </c>
-      <c r="I677" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A678" t="s">
-        <v>9</v>
-      </c>
-      <c r="B678" t="s">
+      <c r="I677" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="678" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A678" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B678" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C678" t="s">
-        <v>28</v>
-      </c>
-      <c r="D678">
+      <c r="C678" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D678" s="2">
         <v>0.98145842900000002</v>
       </c>
-      <c r="E678">
+      <c r="E678" s="2">
         <v>0.96909738199999995</v>
       </c>
-      <c r="F678">
+      <c r="F678" s="2">
         <v>7.0592854999999996E-2</v>
       </c>
-      <c r="G678">
+      <c r="G678" s="2">
         <v>2.9707052000000001E-2</v>
       </c>
-      <c r="H678">
+      <c r="H678" s="2">
         <v>6</v>
       </c>
-      <c r="I678" t="s">
+      <c r="I678" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -22539,7 +22551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>9</v>
       </c>
@@ -22568,7 +22580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>9</v>
       </c>
@@ -22655,7 +22667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>9</v>
       </c>
@@ -23206,7 +23218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="704" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>9</v>
       </c>
@@ -23554,7 +23566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="716" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>9</v>
       </c>
@@ -23641,7 +23653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="719" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>9</v>
       </c>
@@ -23757,7 +23769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="723" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>9</v>
       </c>
@@ -23844,7 +23856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="726" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>9</v>
       </c>
@@ -24801,7 +24813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="759" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>9</v>
       </c>
@@ -24946,7 +24958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="764" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>9</v>
       </c>
@@ -25062,7 +25074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="768" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>9</v>
       </c>
@@ -25178,7 +25190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="772" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>9</v>
       </c>
@@ -25381,7 +25393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="779" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>9</v>
       </c>
@@ -25729,7 +25741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="791" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>9</v>
       </c>
@@ -25874,7 +25886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="796" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>9</v>
       </c>
@@ -25990,7 +26002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="800" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>9</v>
       </c>
@@ -26889,7 +26901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="831" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>9</v>
       </c>
@@ -27063,7 +27075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="837" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>9</v>
       </c>
@@ -27208,7 +27220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="842" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>9</v>
       </c>
@@ -27266,7 +27278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="844" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>9</v>
       </c>
@@ -27411,7 +27423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="849" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>9</v>
       </c>
@@ -27556,7 +27568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="854" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>9</v>
       </c>
@@ -27730,7 +27742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="860" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>9</v>
       </c>
@@ -28020,7 +28032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="870" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>9</v>
       </c>
@@ -28252,7 +28264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="878" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>9</v>
       </c>
@@ -28455,7 +28467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="885" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>9</v>
       </c>
@@ -29006,7 +29018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="904" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>9</v>
       </c>
@@ -29412,7 +29424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="918" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>9</v>
       </c>
@@ -29499,7 +29511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="921" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>9</v>
       </c>
@@ -29586,7 +29598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="924" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>9</v>
       </c>
@@ -30195,7 +30207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="945" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
         <v>9</v>
       </c>
@@ -30572,7 +30584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="958" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
         <v>9</v>
       </c>
@@ -30891,7 +30903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="969" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
         <v>9</v>
       </c>
@@ -31181,7 +31193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="979" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
         <v>9</v>
       </c>
@@ -31210,7 +31222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="980" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
         <v>9</v>
       </c>
@@ -31355,7 +31367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="985" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
         <v>9</v>
       </c>
@@ -31413,7 +31425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="987" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
         <v>9</v>
       </c>
@@ -31500,7 +31512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="990" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
         <v>9</v>
       </c>
@@ -31703,7 +31715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="997" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
         <v>9</v>
       </c>
@@ -31993,7 +32005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1007" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
         <v>9</v>
       </c>
@@ -32080,7 +32092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1010" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
         <v>9</v>
       </c>
@@ -32109,7 +32121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1011" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
         <v>9</v>
       </c>
@@ -32225,7 +32237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1015" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1015" t="s">
         <v>9</v>
       </c>
@@ -32312,7 +32324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1018" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
         <v>9</v>
       </c>
@@ -32428,7 +32440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1022" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
         <v>9</v>
       </c>
@@ -32515,7 +32527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1025" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
         <v>9</v>
       </c>
@@ -32573,7 +32585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1027" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
         <v>9</v>
       </c>
@@ -32921,7 +32933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1039" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
         <v>9</v>
       </c>
@@ -32979,7 +32991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1041" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1041" t="s">
         <v>9</v>
       </c>
@@ -33095,7 +33107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1045" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1045" t="s">
         <v>9</v>
       </c>
@@ -33298,7 +33310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1052" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1052" t="s">
         <v>9</v>
       </c>
@@ -33820,7 +33832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1070" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1070" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1070" t="s">
         <v>9</v>
       </c>
@@ -34111,10 +34123,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1079">
+  <autoFilter ref="A1:I1079" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <customFilters>
-        <customFilter operator="lessThanOrEqual" val="0.98"/>
+        <customFilter operator="lessThanOrEqual" val="0.99"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
